--- a/data/trans_dic/P25_7-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_7-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente)</t>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>54,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>35,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35,45%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33,34%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>41,67%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,48; 48,67</t>
+          <t>10,7; 42,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 31,91</t>
+          <t>10,88; 42,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,77; 36,97</t>
+          <t>10,38; 44,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,81; 53,78</t>
+          <t>9,36; 44,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,63; 50,05</t>
+          <t>30,54; 59,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 46,34</t>
+          <t>31,96; 57,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,7; 48,76</t>
+          <t>26,54; 54,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,8; 39,12</t>
+          <t>39,16; 71,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,98; 39,37</t>
+          <t>25,04; 46,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 47,23</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,6; 44,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 56,55</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>30,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,99%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33,22%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,49</t>
+          <t>14,15; 27,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 23,12</t>
+          <t>12,44; 24,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 19,18</t>
+          <t>10,81; 32,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,59; 39,85</t>
+          <t>20,27; 42,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,3; 42,3</t>
+          <t>32,19; 46,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 41,37</t>
+          <t>31,49; 45,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,73; 27,9</t>
+          <t>26,31; 39,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,84; 31,16</t>
+          <t>31,31; 46,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,27; 27,45</t>
+          <t>24,91; 35,28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 33,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20,1; 31,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27,42; 40,48</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>24,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23,91%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 24,83</t>
+          <t>16,81; 31,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,31; 25,19</t>
+          <t>16,0; 31,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,07; 26,76</t>
+          <t>16,19; 31,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,94; 31,97</t>
+          <t>17,21; 32,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,13; 30,82</t>
+          <t>18,84; 32,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 27,81</t>
+          <t>18,04; 30,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,64; 26,75</t>
+          <t>15,61; 28,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 26,56</t>
+          <t>17,15; 29,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 25,68</t>
+          <t>19,83; 29,64</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,6; 28,54</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 27,47</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 29,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,28; 23,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 22,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 20,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 36,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,69; 34,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,44; 29,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,33; 26,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22,8%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20,77%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33,65%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>33,25%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29,57%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25,25%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 28,2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 26,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 28,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20,98; 34,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29,11; 37,87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29,1; 38,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25,16; 34,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31,13; 42,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25,22; 32,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 30,9</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 29,22</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27,16; 36,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34618</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28002</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30097</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>46120</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>61709</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>50317</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>48257</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>117051</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96327</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>78320</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>78353</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>163171</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13793; 54574</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11469; 44369</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11848; 50683</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16621; 79549</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42795; 82796</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36917; 65860</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32081; 66214</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>83781; 152656</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>67348; 125610</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>50716; 104352</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50756; 105227</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>102860; 221464</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>88315</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68345</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>69615</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>146274</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>179811</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>147531</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>123467</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>189762</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>268127</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>215876</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>193082</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>336036</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60202; 116177</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46808; 93647</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43169; 128463</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>104735; 220833</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>149533; 217197</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>119928; 175165</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>98150; 148927</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>154877; 229131</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>221687; 313951</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>180164; 254340</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>155245; 243490</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>277375; 409371</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79318</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63991</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64148</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>86736</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>106074</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>81827</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>70597</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>93263</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>185392</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>145818</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>134745</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>179998</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55963; 106411</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45187; 87658</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>44580; 86789</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60802; 116148</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>80707; 137320</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62179; 105842</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50830; 91724</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68532; 119756</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>150978; 225655</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>116639; 178963</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>107348; 165095</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>144842; 222307</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>202251</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>160338</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>163859</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>279130</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>347595</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>279676</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>242321</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>400075</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>549846</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>440014</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>406180</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>679205</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>163361; 250232</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>125917; 199704</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>124905; 222453</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>219780; 364494</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>300707; 391153</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>244715; 324302</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>206176; 282944</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>344982; 473003</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>484340; 622434</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>386816; 496032</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>351954; 470035</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>585446; 778416</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
